--- a/testData/CreateEntity/CreateEntity_ETRM_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRM_NewValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="133">
   <si>
     <t>WorflowName</t>
   </si>
@@ -400,6 +400,27 @@
   </si>
   <si>
     <t>CT: Thu, Jun 06, 2024 at 3:49 PM</t>
+  </si>
+  <si>
+    <t>9840023981</t>
+  </si>
+  <si>
+    <t>9840017304</t>
+  </si>
+  <si>
+    <t>9840029729</t>
+  </si>
+  <si>
+    <t>9840085637</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-19 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 5:27 PM</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1020,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>66</v>
@@ -1023,13 +1044,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>123</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>65</v>
@@ -1068,13 +1089,13 @@
         <v>96</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1104,7 +1125,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>70</v>
@@ -1116,7 +1137,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>72</v>
@@ -1382,7 +1403,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
@@ -1406,13 +1427,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>123</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>65</v>
@@ -1451,13 +1472,13 @@
         <v>96</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1487,7 +1508,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>86</v>
@@ -1499,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>87</v>
@@ -1763,7 +1784,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1787,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>123</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>65</v>
@@ -1832,13 +1853,13 @@
         <v>96</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1868,7 +1889,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>74</v>
@@ -1880,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>75</v>
@@ -2145,7 +2166,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>91</v>
@@ -2169,13 +2190,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>123</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>65</v>
@@ -2214,13 +2235,13 @@
         <v>96</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2250,7 +2271,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>93</v>
@@ -2262,13 +2283,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>94</v>
       </c>
       <c r="BB2" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_ETRM_NewValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRM_NewValues_Test.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="137">
   <si>
     <t>WorflowName</t>
   </si>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>CT: Tue, Jul 16, 2024 at 5:27 PM</t>
+  </si>
+  <si>
+    <t>9840085196</t>
+  </si>
+  <si>
+    <t>9840049097</t>
+  </si>
+  <si>
+    <t>9840084872</t>
+  </si>
+  <si>
+    <t>9840010201</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1032,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>66</v>
@@ -1095,7 +1107,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1125,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>70</v>
@@ -1137,7 +1149,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>72</v>
@@ -1403,7 +1415,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
@@ -1478,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1508,7 +1520,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>86</v>
@@ -1520,7 +1532,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>87</v>
@@ -1784,7 +1796,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1859,7 +1871,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1889,7 +1901,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>74</v>
@@ -1901,7 +1913,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>75</v>
@@ -2166,7 +2178,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>91</v>
@@ -2241,7 +2253,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2271,7 +2283,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>93</v>
@@ -2283,7 +2295,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>94</v>
